--- a/data/NACE.xlsx
+++ b/data/NACE.xlsx
@@ -32,9 +32,6 @@
     <t>sector</t>
   </si>
   <si>
-    <t>Agriculture, Forestry, and Fishing</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -62,30 +59,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, Gas, Steam, and Air Conditioning Supply</t>
-  </si>
-  <si>
-    <t>Water Supply, Sewerage, Waste Management, and Remediation Activities</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Wholesale and Retail Trade; Repair of Motor Vehicles and Motorcycles</t>
-  </si>
-  <si>
-    <t>Transportation and Storage</t>
-  </si>
-  <si>
-    <t>Accommodation and Food Service Activities</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -122,46 +95,73 @@
     <t>U</t>
   </si>
   <si>
-    <t>Information and Communication</t>
-  </si>
-  <si>
-    <t>Financial and Insurance Activities</t>
-  </si>
-  <si>
-    <t>Real Estate Activities</t>
-  </si>
-  <si>
-    <t>Professional, Scientific, and Technical Activities</t>
-  </si>
-  <si>
-    <t>Administrative and Support Service Activities</t>
-  </si>
-  <si>
-    <t>Public Administration and Defence; Compulsory Social Security</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Human Health and Social Work Activities</t>
-  </si>
-  <si>
-    <t>Arts, Entertainment, and Recreation</t>
-  </si>
-  <si>
-    <t>Other Service Activities</t>
-  </si>
-  <si>
-    <t>Activities of Households as Employers; Undifferentiated Goods- and Services-Producing Activities of Households for Own Use</t>
-  </si>
-  <si>
-    <t>Activities of Extraterritorial Organizations and Bodies</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>A. Agriculture, Forestry, and Fishing</t>
+  </si>
+  <si>
+    <t>B. Mining and Quarrying</t>
+  </si>
+  <si>
+    <t>C. Manufacturing</t>
+  </si>
+  <si>
+    <t>D. Electricity, Gas, Steam, and Air Conditioning Supply</t>
+  </si>
+  <si>
+    <t>E. Water Supply, Sewerage, Waste Management, and Remediation Activities</t>
+  </si>
+  <si>
+    <t>F. Construction</t>
+  </si>
+  <si>
+    <t>G. Wholesale and Retail Trade; Repair of Motor Vehicles and Motorcycles</t>
+  </si>
+  <si>
+    <t>H. Transportation and Storage</t>
+  </si>
+  <si>
+    <t>I. Accommodation and Food Service Activities</t>
+  </si>
+  <si>
+    <t>J. Information and Communication</t>
+  </si>
+  <si>
+    <t>K. Financial and Insurance Activities</t>
+  </si>
+  <si>
+    <t>L. Real Estate Activities</t>
+  </si>
+  <si>
+    <t>M. Professional, Scientific, and Technical Activities</t>
+  </si>
+  <si>
+    <t>N. Administrative and Support Service Activities</t>
+  </si>
+  <si>
+    <t>O. Public Administration and Defence; Compulsory Social Security</t>
+  </si>
+  <si>
+    <t>P. Education</t>
+  </si>
+  <si>
+    <t>Q. Human Health and Social Work Activities</t>
+  </si>
+  <si>
+    <t>R. Arts, Entertainment, and Recreation</t>
+  </si>
+  <si>
+    <t>S. Other Service Activities</t>
+  </si>
+  <si>
+    <t>T. Activities of Households as Employers; Undifferentiated Goods- and Services-Producing Activities of Households for Own Use</t>
+  </si>
+  <si>
+    <t>U. Activities of Extraterritorial Organizations and Bodies</t>
+  </si>
+  <si>
+    <t>X. Other</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -497,175 +497,175 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>

--- a/data/NACE.xlsx
+++ b/data/NACE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sortizgu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A272BB-AEB3-4533-B048-1A5FF6A8B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -107,18 +108,9 @@
     <t>C. Manufacturing</t>
   </si>
   <si>
-    <t>D. Electricity, Gas, Steam, and Air Conditioning Supply</t>
-  </si>
-  <si>
-    <t>E. Water Supply, Sewerage, Waste Management, and Remediation Activities</t>
-  </si>
-  <si>
     <t>F. Construction</t>
   </si>
   <si>
-    <t>G. Wholesale and Retail Trade; Repair of Motor Vehicles and Motorcycles</t>
-  </si>
-  <si>
     <t>H. Transportation and Storage</t>
   </si>
   <si>
@@ -134,9 +126,6 @@
     <t>L. Real Estate Activities</t>
   </si>
   <si>
-    <t>M. Professional, Scientific, and Technical Activities</t>
-  </si>
-  <si>
     <t>N. Administrative and Support Service Activities</t>
   </si>
   <si>
@@ -146,9 +135,6 @@
     <t>P. Education</t>
   </si>
   <si>
-    <t>Q. Human Health and Social Work Activities</t>
-  </si>
-  <si>
     <t>R. Arts, Entertainment, and Recreation</t>
   </si>
   <si>
@@ -162,12 +148,27 @@
   </si>
   <si>
     <t>X. Other</t>
+  </si>
+  <si>
+    <t>G. Wholesale and Retail Trade</t>
+  </si>
+  <si>
+    <t>D. Energy Supply</t>
+  </si>
+  <si>
+    <t>E. Water Supply, and Remediation Activities</t>
+  </si>
+  <si>
+    <t>M. Professional Activities</t>
+  </si>
+  <si>
+    <t>Q. Health Care</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,14 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -524,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -532,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -540,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -548,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -556,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -564,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -572,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -580,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -588,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -596,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -604,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -612,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -620,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -628,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -636,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -644,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -652,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -660,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -668,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/NACE.xlsx
+++ b/data/NACE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sortizgu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A272BB-AEB3-4533-B048-1A5FF6A8B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD813114-1EA2-466E-9305-8206873A5846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>nace</t>
   </si>
@@ -99,83 +99,157 @@
     <t>X</t>
   </si>
   <si>
-    <t>A. Agriculture, Forestry, and Fishing</t>
-  </si>
-  <si>
-    <t>B. Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>C. Manufacturing</t>
-  </si>
-  <si>
-    <t>F. Construction</t>
-  </si>
-  <si>
-    <t>H. Transportation and Storage</t>
-  </si>
-  <si>
-    <t>I. Accommodation and Food Service Activities</t>
-  </si>
-  <si>
-    <t>J. Information and Communication</t>
-  </si>
-  <si>
-    <t>K. Financial and Insurance Activities</t>
-  </si>
-  <si>
-    <t>L. Real Estate Activities</t>
-  </si>
-  <si>
-    <t>N. Administrative and Support Service Activities</t>
-  </si>
-  <si>
-    <t>O. Public Administration and Defence; Compulsory Social Security</t>
-  </si>
-  <si>
-    <t>P. Education</t>
-  </si>
-  <si>
-    <t>R. Arts, Entertainment, and Recreation</t>
-  </si>
-  <si>
-    <t>S. Other Service Activities</t>
-  </si>
-  <si>
-    <t>T. Activities of Households as Employers; Undifferentiated Goods- and Services-Producing Activities of Households for Own Use</t>
-  </si>
-  <si>
-    <t>U. Activities of Extraterritorial Organizations and Bodies</t>
-  </si>
-  <si>
     <t>X. Other</t>
   </si>
   <si>
-    <t>G. Wholesale and Retail Trade</t>
-  </si>
-  <si>
-    <t>D. Energy Supply</t>
-  </si>
-  <si>
-    <t>E. Water Supply, and Remediation Activities</t>
-  </si>
-  <si>
-    <t>M. Professional Activities</t>
-  </si>
-  <si>
-    <t>Q. Health Care</t>
+    <t>abbr</t>
+  </si>
+  <si>
+    <t>A. Agctlre</t>
+  </si>
+  <si>
+    <t>B. Mining</t>
+  </si>
+  <si>
+    <t>D. ElctGas</t>
+  </si>
+  <si>
+    <t>E. Wtr&amp;Wst</t>
+  </si>
+  <si>
+    <t>C. Mnfctng</t>
+  </si>
+  <si>
+    <t>F. Cnstrct</t>
+  </si>
+  <si>
+    <t>G. Retail</t>
+  </si>
+  <si>
+    <t>H. Transpt</t>
+  </si>
+  <si>
+    <t>I. AccFood</t>
+  </si>
+  <si>
+    <t>J. InfoCom</t>
+  </si>
+  <si>
+    <t>Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>Mining and quarrying</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity, gas, steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Water supply; sewerage, waste management and remediation activities</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles</t>
+  </si>
+  <si>
+    <t>Transportation and storage</t>
+  </si>
+  <si>
+    <t>Accommodation and food service activities</t>
+  </si>
+  <si>
+    <t>Information and communication</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>Real estate activities</t>
+  </si>
+  <si>
+    <t>Professional, scientific and technical activities</t>
+  </si>
+  <si>
+    <t>Administrative and support services</t>
+  </si>
+  <si>
+    <t>Public administration and defence; compulsory social security</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Human health and social work activities</t>
+  </si>
+  <si>
+    <t>Arts, entertainment and recreation</t>
+  </si>
+  <si>
+    <t>Other service activities</t>
+  </si>
+  <si>
+    <t>Activities of households as employers; undifferentiated goods- and services-producing activities of households for own use</t>
+  </si>
+  <si>
+    <t>Activities of Extraterritorial Organizations and Bodies</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>K. Fin&amp;Ins</t>
+  </si>
+  <si>
+    <t>L. RealEst</t>
+  </si>
+  <si>
+    <t>M. ProfSci</t>
+  </si>
+  <si>
+    <t>N. AdmServ</t>
+  </si>
+  <si>
+    <t>O. PubAdm</t>
+  </si>
+  <si>
+    <t>P. Eductn</t>
+  </si>
+  <si>
+    <t>Q. Health</t>
+  </si>
+  <si>
+    <t>R. ArtEnmt</t>
+  </si>
+  <si>
+    <t>S. OtherServ</t>
+  </si>
+  <si>
+    <t>T. HouseEmp</t>
+  </si>
+  <si>
+    <t>U. IntOrg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,8 +272,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,197 +555,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
